--- a/biology/Botanique/Gottfried_Dietrich_Wilhelm_Berthold/Gottfried_Dietrich_Wilhelm_Berthold.xlsx
+++ b/biology/Botanique/Gottfried_Dietrich_Wilhelm_Berthold/Gottfried_Dietrich_Wilhelm_Berthold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gottfried Dietrich Wilhelm Berthold est un botaniste allemand, né le 16 septembre 1854 à Gahmen en province de Westphalie et mort le 7 janvier 1937 à Göttingen.
 </t>
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Franz Diederich Heinrich Berthold et de Johanna Hermine Wilhelmine. Il se marie avec Anna Brons, union dont il aura deux fils et une fille. Il enseigne à Göttingen de 1887 à 1923.
 Il étudie d’abord les algues notamment de la région de Naples avant de se consacrer à l’étude de la physiologie végétale.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Die Cryptonemiaceen des Golfes von Neapel und der Angrenzenden Meeres-abschnitte, Leipzig, Wilhelm Engelmann, 1884, Fauna und Flora des Golfes von Neapel und der Angrenzenden Meeres-Abschnitte, Band XII, 17 p., 8 pl.
 Studien über Protophamamechanik (1886)
